--- a/data_sheets/components.xlsx
+++ b/data_sheets/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/mvanmol_tudelft_nl/Documents/Electrical Engineering/Internship/KUL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/mvanmol_tudelft_nl/Documents/Electrical Engineering/Internship/KUL/Electrolysis_device/data_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{5132ED72-2670-4A7D-BDB5-CDF8C4463B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DE173F-5A2F-4DD0-A170-ED12451901D3}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{5132ED72-2670-4A7D-BDB5-CDF8C4463B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A10FC2-3CA9-4A44-859B-B76419E7274E}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{20CD6FA4-E68C-41EC-91BC-C3632A0AD840}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20CD6FA4-E68C-41EC-91BC-C3632A0AD840}"/>
   </bookViews>
   <sheets>
     <sheet name="Circuit_V1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Reference</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>R8</t>
-  </si>
-  <si>
-    <t>755-1397P</t>
   </si>
   <si>
     <t>43k</t>
@@ -820,10 +817,6 @@
     </a>
   </bag>
 </FeaturePropertyBags>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DBD263-F25E-489C-A9A4-FEE7E5AB1272}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,9 +1504,6 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="1" t="b">
